--- a/data/income_statement/1digit/total/M_IS_TOTAL.xlsx
+++ b/data/income_statement/1digit/total/M_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>M-Professional, scientific and technical activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>M-Professional, scientific and technical activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,92 +841,107 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>860791006.12383</v>
+        <v>28385243.45668999</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>1550837806.02015</v>
+        <v>31544947.01241</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>59572718.30085</v>
+        <v>36217522.99524</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>42031193.57416</v>
+        <v>39153491.9496</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>44404691.49463999</v>
+        <v>44430955.38685</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>51893612.32862001</v>
+        <v>50502425.94737</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>61593027.30071001</v>
+        <v>63498511.98736999</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>68841815.68421</v>
+        <v>69869892.62706999</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>86420926.29357998</v>
+        <v>86420926.29358</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>94548412.91935</v>
+        <v>95128259.22121</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>105738813.4581</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>108164169.72576</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>138167003.995</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>857579687.6315202</v>
+        <v>25173924.96438</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1547245186.56324</v>
+        <v>27952257.34348</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>55923640.12646999</v>
+        <v>32565248.58834</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>37931568.55642998</v>
+        <v>34896989.01229</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>39725641.83093</v>
+        <v>39743267.63187</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>46178139.50432</v>
+        <v>44767244.62016</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>55291749.50527998</v>
+        <v>57070289.84609</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>62025787.73211999</v>
+        <v>62869905.16031001</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>76893419.13586999</v>
+        <v>76893419.13587001</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>84010104.22720999</v>
+        <v>84570398.85514002</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>93244370.96732</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>95436442.35784997</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>120194567.39</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>1365825.63003</v>
@@ -1037,115 +953,130 @@
         <v>1932960.89089</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>2336535.66609</v>
+        <v>2489390.05813</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>2790243.9773</v>
+        <v>2793269.853190001</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>3670910.361950001</v>
+        <v>3682888.67752</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>4009669.79279</v>
+        <v>4083402.60003</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>4214756.01309</v>
+        <v>4358879.39901</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>6117033.11494</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>6470850.498780001</v>
+        <v>6485959.021930002</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>8423734.234110001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>8587496.292689998</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>13411566.3</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>1845492.86228</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>2143847.72406</v>
+        <v>2143917.93608</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>1716117.28349</v>
+        <v>1719313.51601</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>1763089.35164</v>
+        <v>1767112.87918</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>1888805.68641</v>
+        <v>1894417.90179</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>2044562.46235</v>
+        <v>2052292.64969</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>2291608.002640001</v>
+        <v>2344819.54125</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>2601271.938999999</v>
+        <v>2641108.06775</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>3410474.04277</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>4067458.19336</v>
+        <v>4071901.34414</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>4070708.25667</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>4140231.075220001</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>4560870.305</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>835025075.7583101</v>
+        <v>2619313.09117</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>1522047546.33706</v>
+        <v>2748817.77876</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>23891344.57049001</v>
+        <v>532550.2409</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>3988297.114929999</v>
+        <v>675433.5114099998</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>901330.6960999999</v>
+        <v>589726.8536700001</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>2326984.368040001</v>
+        <v>605169.1192700001</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>829023.5072100001</v>
+        <v>847805.91223</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1029602.88961</v>
+        <v>1063301.96824</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>1110195.68317</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>1537439.97152</v>
+        <v>1539297.43838</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>1773958.138500001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1552621.6872</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1980765.009</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>321620.6059899999</v>
+        <v>321620.60599</v>
       </c>
       <c r="D10" s="48" t="n">
         <v>246379.15583</v>
@@ -1154,76 +1085,86 @@
         <v>346657.85013</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>468715.87903</v>
+        <v>468776.32252</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>434594.53536</v>
+        <v>436673.29234</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>2172118.34434</v>
+        <v>450512.49175</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>682688.3446699999</v>
+        <v>701110.8472499999</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>861656.3502499999</v>
+        <v>894403.5918800001</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>920212.5784199998</v>
+        <v>920212.57842</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>1326100.76911</v>
+        <v>1327939.95697</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>1506067.29144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1262753.95627</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>1671326.323</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>834652765.9343501</v>
+        <v>2247003.26721</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>1521723770.62476</v>
+        <v>2425042.066459999</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>23439955.95399</v>
+        <v>81161.6244</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>3398888.62453</v>
+        <v>84187.71703999999</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>394654.0759400001</v>
+        <v>78567.75039999998</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>76536.53233</v>
+        <v>76308.79874</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>74494.64005999999</v>
+        <v>74753.52514999999</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>89120.19012999997</v>
+        <v>89205.94807999999</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>98425.47275999999</v>
+        <v>98425.47276</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>103581.3463</v>
+        <v>103597.67954</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>132853.53597</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>154430.7150499999</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>180979.399</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>50689.21797000001</v>
+        <v>50689.21797</v>
       </c>
       <c r="D12" s="48" t="n">
         <v>77396.55646999998</v>
@@ -1232,73 +1173,83 @@
         <v>104730.76637</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>120692.61137</v>
+        <v>122469.47185</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>72082.0848</v>
+        <v>74485.81092999999</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>78329.49136999997</v>
+        <v>78347.82878</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>71840.52248</v>
+        <v>71941.53982999998</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>78826.34923000001</v>
+        <v>79692.42828000001</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>91557.63198999999</v>
+        <v>91557.63198999998</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>107757.85611</v>
+        <v>107759.80187</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>135037.31109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>135437.01588</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>128459.287</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>25765930.36552</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>28790259.68309</v>
+        <v>28796129.23365</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>35681373.73035999</v>
+        <v>35684972.75434</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>38042896.45923001</v>
+        <v>38478058.43819</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>43503360.79854001</v>
+        <v>43841228.53318</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>49566627.96058</v>
+        <v>49897256.8281</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>60764003.79349999</v>
+        <v>62650706.07513999</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>67812212.79460001</v>
+        <v>68806590.65882999</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>85310730.61041</v>
+        <v>85310730.61041002</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>93010972.94783001</v>
+        <v>93588961.78283001</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>103964855.3196</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>106611548.03856</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>136186238.986</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>18231476.12697</v>
@@ -1307,115 +1258,130 @@
         <v>19539794.12712</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>25115390.41249</v>
+        <v>25115708.36927</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>26859103.16948</v>
+        <v>27027347.17003</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>30719342.75874</v>
+        <v>30948743.91082</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>35229170.50317999</v>
+        <v>35501869.65885001</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>41241610.42543001</v>
+        <v>42302185.24151</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>49496525.91506</v>
+        <v>50244610.18306</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>62909773.55689999</v>
+        <v>62909773.5569</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>66598049.83934999</v>
+        <v>67027644.26603</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>75855103.6239</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>78135160.23551998</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>100307120.464</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>1082627.51594</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>997910.1268900001</v>
+        <v>997910.1268899998</v>
       </c>
       <c r="E15" s="48" t="n">
         <v>1121433.01927</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>1169124.76464</v>
+        <v>1170828.07637</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>1347494.47677</v>
+        <v>1354783.39627</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>1992005.92202</v>
+        <v>2000578.54248</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1888160.24954</v>
+        <v>1937865.27344</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>2312756.69797</v>
+        <v>2331939.12616</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>3622885.75223</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>3612105.97235</v>
+        <v>3642570.12137</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>4268962.395029999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>4357550.11856</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>7491963.702</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>3035996.81143</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>3018056.988739999</v>
+        <v>3018056.98874</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>3834926.946470001</v>
+        <v>3835206.59867</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>4403735.75359</v>
+        <v>4407167.52839</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>4671067.40514</v>
+        <v>4687739.77344</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>5884231.741820001</v>
+        <v>5896724.62558</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>7724051.00126</v>
+        <v>7794768.697349999</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>9071355.842540001</v>
+        <v>9076928.784780001</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>13760163.60817</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>11555968.23449</v>
+        <v>11719445.66047</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>13724665.22751</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>15025355.03577</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>27436046.946</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>13014819.09353</v>
@@ -1424,37 +1390,42 @@
         <v>15025504.30565</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>19415607.14904</v>
+        <v>19415645.45362001</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>20688100.98638</v>
+        <v>20851169.62271</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>24566077.89841</v>
+        <v>24771490.12305</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>27163202.96276</v>
+        <v>27414735.51610999</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>31472331.46075</v>
+        <v>32407084.37196</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>37922267.34422</v>
+        <v>38645103.19864</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>45224927.54273999</v>
+        <v>45224927.54274</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>51002439.84546</v>
+        <v>51237654.46282001</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>57445132.29369</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>58323950.47562</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>64829347.505</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>1098032.70607</v>
@@ -1466,112 +1437,127 @@
         <v>743423.2977100001</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>598141.6648699999</v>
+        <v>598181.94256</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>134702.97842</v>
+        <v>134730.61806</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>189729.87658</v>
+        <v>189830.97468</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>157067.71388</v>
+        <v>162466.89876</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>190146.03033</v>
+        <v>190639.07348</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>301796.6537600001</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>427535.78705</v>
+        <v>427974.02137</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>416343.70767</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>428304.6055700001</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>549762.311</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>7534454.238550001</v>
+        <v>7534454.23855</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>9250465.555970002</v>
+        <v>9256335.106530001</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>10565983.31787</v>
+        <v>10569264.38507</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>11183793.28975</v>
+        <v>11450711.26816</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>12784018.0398</v>
+        <v>12892484.62236</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>14337457.4574</v>
+        <v>14395387.16925</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>19522393.36807</v>
+        <v>20348520.83363</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>18315686.87954</v>
+        <v>18561980.47577</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>22400957.05351</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>26412923.10848</v>
+        <v>26561317.5168</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>28109751.6957</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>28476387.80304</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>35879118.522</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>5404509.58911</v>
+        <v>5404510.089109999</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>6114680.805029999</v>
+        <v>6119776.440549999</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>7390417.429249999</v>
+        <v>7393128.412310001</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>8445961.02337</v>
+        <v>8542359.961209999</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>9631738.432909999</v>
+        <v>9726496.59973</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>11289107.88773</v>
+        <v>11357400.35711</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>12725122.94992</v>
+        <v>13337747.8677</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>14698035.49083</v>
+        <v>15022208.54001</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>17324529.22993001</v>
+        <v>17324529.22993</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>20107048.8173</v>
+        <v>20189587.83765</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>23548705.31659</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>23877963.89423</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>25409205.562</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>120989.3668</v>
@@ -1583,229 +1569,259 @@
         <v>115069.92725</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>172117.26379</v>
+        <v>172659.30092</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>199142.237</v>
+        <v>199410.19312</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>226006.87076</v>
+        <v>226163.32662</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>256364.7481</v>
+        <v>257239.22712</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>316544.99038</v>
+        <v>317373.86084</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>553631.08979</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>684766.8920300001</v>
+        <v>685007.4444299999</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>888785.00515</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>900363.7650400001</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>1016699.065</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>681655.1040599999</v>
+        <v>681655.6040599999</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>792534.37847</v>
+        <v>792534.3784700001</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>885823.4048499999</v>
+        <v>886008.3077399998</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>930378.0907099999</v>
+        <v>935584.1437799999</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>990282.0996699999</v>
+        <v>992820.2600200002</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>1017958.36508</v>
+        <v>1021049.34401</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>1157555.58071</v>
+        <v>1185602.4146</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>1325762.0544</v>
+        <v>1354297.3366</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>1626493.02201</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>1883125.52434</v>
+        <v>1895181.42942</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>2298404.608680001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>2328127.54684</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>2775479.831</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>4601865.118249999</v>
+        <v>4601865.11825</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>5219097.87583</v>
+        <v>5224193.511349998</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>6389524.097150001</v>
+        <v>6392050.177319999</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>7343465.66887</v>
+        <v>7434116.51651</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>8442314.096239997</v>
+        <v>8534266.14659</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>10045142.65189</v>
+        <v>10110187.68648</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>11311202.62111</v>
+        <v>11894906.22598</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>13055728.44605</v>
+        <v>13350537.34257</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>15144405.11813</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>17539156.40093</v>
+        <v>17609398.9638</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>20361515.70276</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>20649472.58235</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>21617026.666</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>2129944.64944</v>
+        <v>2129944.14944</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>3135784.75094</v>
+        <v>3136558.66598</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>3175565.888619999</v>
+        <v>3176135.97276</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>2737832.26638</v>
+        <v>2908351.306950001</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>3152279.60689</v>
+        <v>3165988.02263</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>3048349.569669999</v>
+        <v>3037986.81214</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>6797270.418149999</v>
+        <v>7010772.965929998</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>3617651.38871</v>
+        <v>3539771.93576</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>5076427.82358</v>
+        <v>5076427.823580001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>6305874.291180002</v>
+        <v>6371729.679149999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>4561046.379110001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>4598423.908809999</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>10469912.96</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>10346560.85994</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>15599890.59254</v>
+        <v>15606240.39429</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>15975767.59086</v>
+        <v>15981003.40687</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>14010103.7001</v>
+        <v>14180245.80404</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>21742128.12533</v>
+        <v>22437894.51002</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>23689036.69621</v>
+        <v>25189661.30866</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>40682163.02991001</v>
+        <v>45328367.81208</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>39038705.82502</v>
+        <v>39471003.24988999</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>47408898.16695999</v>
+        <v>47408898.16696001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>107810443.09894</v>
+        <v>107881136.43834</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>84753791.00483997</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>83759204.87625</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>107250191.89</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>1270611.58443</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>1575883.0901</v>
+        <v>1575884.31864</v>
       </c>
       <c r="E26" s="48" t="n">
         <v>1997648.67674</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>2599076.1567</v>
+        <v>2613644.27963</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>3088779.711860001</v>
+        <v>3117648.87068</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>3821153.35402</v>
+        <v>3822993.903</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>4595271.761179999</v>
+        <v>5493123.558389999</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>4625374.2481</v>
+        <v>4655527.71538</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>6432564.92417</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>8300278.914940001</v>
+        <v>8304008.08922</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>8787794.487</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>8789788.075460002</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>6714687.227</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>1531347.63728</v>
@@ -1814,22 +1830,22 @@
         <v>1944357.78835</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>2458173.426579999</v>
+        <v>2458173.42658</v>
       </c>
       <c r="F27" s="48" t="n">
         <v>3040133.59413</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>4708127.384849999</v>
+        <v>4978213.1612</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>4431178.742380001</v>
+        <v>5023333.27129</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>6390142.936840001</v>
+        <v>8535809.65581</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>6704567.234639999</v>
+        <v>6741777.856609998</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>7414223.882470001</v>
@@ -1838,130 +1854,150 @@
         <v>14731448.74422</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>22081008.48239</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>22081412.46047</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>16728021.724</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>1236009.63432</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>1048083.28673</v>
+        <v>1048916.18428</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>1798807.189119999</v>
+        <v>1799335.60488</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>1966159.33607</v>
+        <v>2016790.19666</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>2242737.375650001</v>
+        <v>2272333.31926</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>2985419.30872</v>
+        <v>3017006.501820001</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>3414402.12468</v>
+        <v>3796983.35125</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>4226525.476729999</v>
+        <v>4234140.65484</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>5719331.818049998</v>
+        <v>5719331.818049999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>9247436.236429999</v>
+        <v>9249787.039309997</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>11640054.87042001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>11649988.944</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>7836283.313</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>31005.38858</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>54336.16126000001</v>
+        <v>54336.16126</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>37783.82533</v>
+        <v>37783.82533000001</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>30674.00518</v>
+        <v>30745.47418</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>48360.25048</v>
+        <v>49917.48712000001</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>67618.52492999999</v>
+        <v>67618.52493000001</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>83225.14252999998</v>
+        <v>84001.90079</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>97484.40504999999</v>
+        <v>97509.34265999998</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>143505.7885</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>238597.37277</v>
+        <v>238599.89608</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>311749.4514199999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>311789.8953999999</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>482118.019</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>448978.31224</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>435875.56275</v>
+        <v>435875.5627499999</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>313691.9121799999</v>
+        <v>313691.91218</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>375951.2798300001</v>
+        <v>376042.2818299999</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>1222086.86872</v>
+        <v>1222116.91841</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>419432.91799</v>
+        <v>420133.5889799999</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>1275159.27183</v>
+        <v>1278163.17022</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>1130463.63466</v>
+        <v>1131039.37872</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>589774.9469200001</v>
+        <v>589774.9469199999</v>
       </c>
       <c r="L30" s="48" t="n">
         <v>357471.56105</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>355184.68226</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>355975.66479</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>396122.354</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>291083.29668</v>
@@ -1973,76 +2009,86 @@
         <v>1255934.04251</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>685673.6029200001</v>
+        <v>687757.4875</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>898648.5851400001</v>
+        <v>899607.52642</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>638702.06407</v>
+        <v>640789.7604800001</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>5413257.606830002</v>
+        <v>5415414.23401</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>392037.2506200001</v>
+        <v>392441.9368</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>3151677.65016</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>3828616.796340001</v>
+        <v>3828886.86929</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>1879942.15329</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1880499.85563</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>6467570.747</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>4644564.887109999</v>
+        <v>4644564.88711</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>4711802.842840001</v>
+        <v>4717318.5185</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>6944767.810679999</v>
+        <v>6949460.76083</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>4249484.014599999</v>
+        <v>4345245.432809999</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>8475017.59063</v>
+        <v>8768021.174339999</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>10039206.37148</v>
+        <v>10832235.7006</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>18001647.46291</v>
+        <v>19123872.06267</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>20348093.89709</v>
+        <v>20559920.87256</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>21473058.88985001</v>
+        <v>21473058.88985</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>58758336.67840999</v>
+        <v>58820103.42624</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>35214423.72113</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>35257200.10114001</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>64178115.172</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>9981.230030000001</v>
+        <v>9981.230029999999</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>12467.03974</v>
@@ -2057,13 +2103,13 @@
         <v>9077.600179999999</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>11133.56087</v>
+        <v>12155.24523</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>5435.243939999999</v>
+        <v>5443.03768</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>2554.17168</v>
+        <v>2586.11024</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>2946.24756</v>
@@ -2072,13 +2118,18 @@
         <v>13257.58589</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>188285.45389</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>188285.4538899999</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>768944.689</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>2677.96811</v>
@@ -2093,16 +2144,16 @@
         <v>326.15056</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>603.97074</v>
+        <v>603.9707399999999</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>634.62791</v>
+        <v>634.6279099999999</v>
       </c>
       <c r="I34" s="48" t="n">
         <v>1946.69333</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>1217.13056</v>
+        <v>1221.96495</v>
       </c>
       <c r="K34" s="48" t="n">
         <v>1772.31302</v>
@@ -2111,91 +2162,106 @@
         <v>1301.20002</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>3679.25196</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>3946.24132</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>2286.625</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>880300.9211599999</v>
+        <v>880300.9211599997</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>823016.8572400002</v>
+        <v>823016.8572399999</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>1161062.61869</v>
+        <v>1161077.06879</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>1058400.91282</v>
+        <v>1065336.25945</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>1048688.78708</v>
+        <v>1120354.48167</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>1274557.22384</v>
+        <v>1352760.18442</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>1501674.78584</v>
+        <v>1593610.14793</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>1510388.37589</v>
+        <v>1654837.41713</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>2480041.70626</v>
+        <v>2480041.706260001</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>12333698.00887</v>
+        <v>12336272.02702</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>4291668.45108</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>3240318.18415</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>3676042.02</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>4506407.81048</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>4845599.893859999</v>
+        <v>4850548.13173</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>6130535.935579999</v>
+        <v>6135573.863930001</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>4486791.128620001</v>
+        <v>4600515.39795</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>7602452.964390001</v>
+        <v>7901368.746490001</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>9232216.139969999</v>
+        <v>9946674.19799</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>15503688.23572</v>
+        <v>16204195.29842</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>16499458.64208</v>
+        <v>16726012.92644</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>18544185.57756</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>69681081.28691998</v>
+        <v>69747173.25583002</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>35674375.58872001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>35725208.2753</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>66839231.839</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>31524.13119</v>
@@ -2204,79 +2270,89 @@
         <v>32563.45809</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>45830.75381</v>
+        <v>45830.75380999999</v>
       </c>
       <c r="F37" s="48" t="n">
         <v>41466.40732</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>67619.83003</v>
+        <v>68702.38604</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>56245.13731999999</v>
+        <v>56332.32705000001</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>66255.95198</v>
+        <v>66862.71752999998</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>62200.48804</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>80689.03668000002</v>
+        <v>80689.03667999999</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>244766.62399</v>
+        <v>244840.52187</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>198245.5919</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>198529.55345</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>576414.746</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>144395.36856</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>60510.89655999999</v>
+        <v>60510.89656</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>82086.65430999998</v>
+        <v>82086.65431</v>
       </c>
       <c r="F38" s="48" t="n">
         <v>204362.74331</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>121152.60478</v>
+        <v>122886.11722</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>169247.49608</v>
+        <v>170263.47849</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>167178.15367</v>
+        <v>175595.42404</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>212154.9793</v>
+        <v>215346.82021</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>191572.34559</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>426440.43472</v>
+        <v>427175.6852299999</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>246999.14607</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>250889.28529</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>212114.995</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>60144.08824</v>
+        <v>60144.08823999999</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>268499.1988</v>
@@ -2285,79 +2361,89 @@
         <v>199882.19031</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>150648.76511</v>
+        <v>161196.76511</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>167385.44187</v>
+        <v>167858.81833</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>437348.67454</v>
+        <v>437898.51184</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>134207.94993</v>
+        <v>134298.10435</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>135222.90278</v>
+        <v>135279.52601</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>401685.31451</v>
+        <v>401685.3145099999</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>617360.3407199999</v>
+        <v>617361.09615</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>274323.30936</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>274329.34754</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>792104.223</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>4046616.775409999</v>
+        <v>4046616.77541</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>4117375.58424</v>
+        <v>4122323.82211</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>5208545.439960001</v>
+        <v>5211912.234440001</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>3752004.02078</v>
+        <v>3849882.43787</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>6937164.5969</v>
+        <v>7174468.025670001</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>8256615.016179999</v>
+        <v>8917957.45909</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>14243392.94864</v>
+        <v>14920058.79966</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>15469050.96575</v>
+        <v>15687901.59014</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>16862933.98817</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>48190607.29039998</v>
+        <v>48253334.28788</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>33869011.78120001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>33910494.63064001</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>62787428.412</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>9497.565259999998</v>
+        <v>9497.565260000001</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>3951.11036</v>
+        <v>3951.110359999999</v>
       </c>
       <c r="E41" s="48" t="n">
         <v>5735.23126</v>
@@ -2366,16 +2452,16 @@
         <v>3751.84609</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>5099.952089999999</v>
+        <v>6791.30622</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>10173.07036</v>
+        <v>10956.51907</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>9833.697629999999</v>
+        <v>9834.11083</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>2438.81985</v>
+        <v>2444.85408</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>3281.83119</v>
@@ -2384,16 +2470,21 @@
         <v>10585.15278</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>40883.52888000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>40884.70468</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>771824.265</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>377.2180900000001</v>
+        <v>377.21809</v>
       </c>
       <c r="D42" s="48" t="n">
         <v>526.18106</v>
@@ -2405,10 +2496,10 @@
         <v>235.62494</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>89.63517999999999</v>
+        <v>89.63519000000001</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>332.05134</v>
+        <v>332.05737</v>
       </c>
       <c r="I42" s="48" t="n">
         <v>282916.9813700001</v>
@@ -2423,247 +2514,282 @@
         <v>1111.03459</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>7458.220240000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>1435.61337</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>2062.097</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>213852.66373</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>362173.4647499999</v>
+        <v>362173.46475</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>587380.0714499999</v>
+        <v>589051.20532</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>334321.7210699999</v>
+        <v>339619.57331</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>303940.90354</v>
+        <v>360572.45782</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>302254.69415</v>
+        <v>352933.84508</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>599902.5524999999</v>
+        <v>614629.1606400001</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>618097.1473899997</v>
+        <v>622546.3089900002</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>1003519.77651</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>20190210.40972</v>
+        <v>20192765.47733</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>1037454.01107</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>1048645.14033</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>1697283.101</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>2418588.31875</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>2416594.025349999</v>
+        <v>2416595.46678</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>4695945.39316</v>
+        <v>4695953.305990001</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>2999614.07693</v>
+        <v>3065854.59507</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>7469333.492759999</v>
+        <v>7948762.488469999</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>8071463.25062</v>
+        <v>8599625.793450002</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>15697124.71411</v>
+        <v>16338023.35571999</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>18581319.23843</v>
+        <v>18601920.21757</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>19490993.19184</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>42791460.68188</v>
+        <v>42794997.5287</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>33981170.20017</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>34003114.82945</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>44380554.26</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>1417510.390219999</v>
+        <v>1417510.39022</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>1658938.24954</v>
+        <v>1658939.69097</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>3119680.811869999</v>
+        <v>3119688.7247</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>2132537.57549</v>
+        <v>2178217.58021</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>4158448.09284</v>
+        <v>4486006.702439999</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>4901514.822849999</v>
+        <v>5230995.890829999</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>10375239.39317</v>
+        <v>10499125.33992</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>11348957.96171</v>
+        <v>11369565.39001</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>14698358.07144</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>27554582.3826</v>
+        <v>27558086.19007999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>22475670.60219</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>22487637.68344</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>30320573.605</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>1001077.92853</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>757655.77581</v>
+        <v>757655.7758099999</v>
       </c>
       <c r="E46" s="48" t="n">
         <v>1576264.58129</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>867076.50144</v>
+        <v>887637.01486</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>3310885.399920001</v>
+        <v>3462755.78603</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>3169948.427769999</v>
+        <v>3368629.90262</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>5321885.32094</v>
+        <v>5838898.015799998</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>7232361.276719999</v>
+        <v>7232354.827559998</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>4792635.120399999</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>15236878.29928</v>
+        <v>15236911.33862</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>11505499.59798</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>11515477.14601</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>14059980.655</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>5551509.380150001</v>
+        <v>5551508.880150001</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>11473481.42427</v>
+        <v>11475655.46176</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>8324852.15074</v>
+        <v>8325612.209709998</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>9261530.760929998</v>
+        <v>9422227.117969999</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>9822621.27507</v>
+        <v>9753751.297689999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>9433706.875289999</v>
+        <v>9681348.129360002</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>16278620.49823</v>
+        <v>19796922.12387001</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>7575579.333219999</v>
+        <v>7682842.041639999</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>14450147.22114</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>1643775.42132</v>
+        <v>1710695.33296</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>19659291.59506001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>18629305.68031</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>6500318.751</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>1247309.47978</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>1783663.75541</v>
+        <v>1783664.61569</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>1647791.18342</v>
+        <v>1647871.74109</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>2040878.097930001</v>
+        <v>2044342.79192</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>4983641.81061</v>
+        <v>4988654.74434</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>1802680.09324</v>
+        <v>1991807.04185</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>4337557.650359999</v>
+        <v>4724243.332130001</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>5572531.33654</v>
+        <v>5578872.941029999</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>8233655.23282</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>10725283.4321</v>
+        <v>10728505.11677</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>7681870.10764</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>8811766.935419999</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>6144939.99</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>14635.39256</v>
@@ -2675,151 +2801,171 @@
         <v>8269.90994</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>44577.76530000001</v>
+        <v>44600.49698</v>
       </c>
       <c r="G49" s="48" t="n">
         <v>14776.29679</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>9610.27549</v>
+        <v>11437.8897</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>14934.55615</v>
+        <v>15177.09785</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>21098.23399</v>
+        <v>21744.2456</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>20687.49188</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>43245.75929000001</v>
+        <v>44469.63291000001</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>45040.86903</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>45085.57928</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>135382.45</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>1232674.08722</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>1769517.76913</v>
+        <v>1769518.62941</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>1639521.27348</v>
+        <v>1639601.83115</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>1996300.332630001</v>
+        <v>1999742.29494</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>4968865.51382</v>
+        <v>4973878.447550001</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>1793069.81775</v>
+        <v>1980369.15215</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>4322623.09421</v>
+        <v>4709066.23428</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>5551433.102550001</v>
+        <v>5557128.695430001</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>8212967.740940003</v>
+        <v>8212967.74094</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>10682037.67281</v>
+        <v>10684035.48386</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>7636829.238609998</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>8766681.356139999</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>6009557.54</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>525626.8411699999</v>
+        <v>525626.84117</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>1203976.66182</v>
+        <v>1203986.45495</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>4191658.4772</v>
+        <v>4196179.15596</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>759696.21157</v>
+        <v>760880.13971</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>1814628.43933</v>
+        <v>2085347.78141</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>2322235.65827</v>
+        <v>2835485.34252</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>1286725.86005</v>
+        <v>1301930.6892</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>3988749.89472</v>
+        <v>3994065.20634</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>1596579.25132</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>4301895.625840001</v>
+        <v>4311211.75895</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>4210731.788419999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>4224771.47391</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>5237101.163</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>5075.091530000001</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>3692.56023</v>
+        <v>3692.560230000001</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>4299.33748</v>
+        <v>4299.337479999999</v>
       </c>
       <c r="F52" s="48" t="n">
         <v>5318.21845</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>6830.085730000001</v>
+        <v>6899.181890000001</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>5833.32806</v>
+        <v>5834.22344</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>7288.356690000001</v>
+        <v>7291.66215</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>9394.283670000003</v>
+        <v>9397.919099999999</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>7189.180570000002</v>
+        <v>7189.18057</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>8938.967980000001</v>
+        <v>9373.21077</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>9418.219999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>9464.334220000001</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>120503.512</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>48178.04091</v>
@@ -2828,115 +2974,130 @@
         <v>45576.74117</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>54299.6035</v>
+        <v>54299.60349999999</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>42366.84256</v>
+        <v>42366.84256000001</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>36410.58766</v>
+        <v>36477.20629</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>146306.49463</v>
+        <v>148162.1085</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>78818.20862</v>
+        <v>82135.64454000001</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>85823.26858999999</v>
+        <v>85943.57679000001</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>68009.32819</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>112158.41563</v>
+        <v>112604.71229</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>87242.44355</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>86634.39540000001</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>220353.447</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>472373.7087299999</v>
+        <v>472373.70873</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>1154707.36042</v>
+        <v>1154717.15355</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>4133059.53622</v>
+        <v>4137580.214980001</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>712011.1505600001</v>
+        <v>713195.0787000001</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>1771387.76594</v>
+        <v>2041971.39323</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>2170095.83558</v>
+        <v>2681489.010580001</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>1200619.29474</v>
+        <v>1212503.38251</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>3893532.34246</v>
+        <v>3898723.71045</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>1521380.74256</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>4180798.24223</v>
+        <v>4189233.835890001</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>4114071.124869999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>4128672.74429</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>4896244.204</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>6273192.01876</v>
+        <v>6273191.51876</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>12053168.51786</v>
+        <v>12055333.6225</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>5780984.85696</v>
+        <v>5777304.79484</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>10542712.64729</v>
+        <v>10705689.77018</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>12991634.64635</v>
+        <v>12657058.26062</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>8914151.310260002</v>
+        <v>8837669.828689998</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>19329452.28854</v>
+        <v>23219234.7668</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>9159360.775040001</v>
+        <v>9267649.776329998</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>21087223.20264</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>8067163.227579998</v>
+        <v>8127988.69078</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>23130429.91428</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>23216301.14182</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>7408157.578</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>479094.7380299999</v>
@@ -2945,73 +3106,81 @@
         <v>1399278.42079</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>1013872.35298</v>
+        <v>1013906.58234</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>741014.97958</v>
+        <v>741448.27367</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>1039880.12127</v>
+        <v>1049092.66083</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>972282.9564800001</v>
+        <v>976040.66799</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>1236678.17193</v>
+        <v>1390998.53694</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>1344890.6371</v>
+        <v>1362497.06461</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>1601110.50423</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>2592256.05265</v>
+        <v>2611842.54765</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>2120675.603099999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>2145284.62027</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>3297460.37</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>5794097.280730001</v>
+        <v>5794096.78073</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>10653890.09707</v>
+        <v>10656055.20171</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>4767112.503979999</v>
+        <v>4763398.2125</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>9801697.667709999</v>
+        <v>9964241.496510001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>11951754.52508</v>
+        <v>11607965.59979</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>7941868.35378</v>
+        <v>7861629.1607</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>18092774.11661001</v>
+        <v>21828236.22986</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>7814470.137940001</v>
+        <v>7905152.711719999</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>19486112.69841</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>5474907.174929999</v>
+        <v>5516146.143130002</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>21009754.31118001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>21071016.52155</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>4110697.208</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>30848</v>
+        <v>30849</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>34375</v>
+        <v>34376</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>36809</v>
+        <v>36815</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>38576</v>
+        <v>38613</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>41664</v>
+        <v>41747</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>44408</v>
+        <v>44591</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>47697</v>
+        <v>48174</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>50522</v>
+        <v>50845</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>54555</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>55949</v>
+        <v>57834</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>57752</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>61235</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>66080</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>